--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P25_trail15 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P25_trail15 Features.xlsx
@@ -2950,7 +2950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2961,29 +2961,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3004,115 +3002,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3129,72 +3117,66 @@
         <v>4.976039619274413e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.3141337116638374</v>
+        <v>1.664602412133753e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.9802393323670597</v>
+        <v>8.025940439888091e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.664602412133753e-06</v>
+        <v>-0.02219402112977911</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>8.025940439888091e-06</v>
+        <v>0.1956997796766242</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.02219402112977911</v>
+        <v>0.03871463903433197</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1956997796766242</v>
+        <v>1.732775265588499</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.03871463903433197</v>
+        <v>1.779576876085886</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.665926557317724</v>
+        <v>3.174302394188118</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.779576876085886</v>
+        <v>2.505138542406082e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.174302394188118</v>
+        <v>21133463.41557667</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.505138542406082e-14</v>
+        <v>5.375221146086119e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>21133463.41557667</v>
+        <v>11.18853182486742</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>5.375221146086119e-06</v>
+        <v>0.000135958290232297</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>11.18853182486742</v>
+        <v>8.785522402398808</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.000135958290232297</v>
+        <v>1.247847242872394</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.785522402398808</v>
+        <v>0.01049399554282895</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.247847242872394</v>
+        <v>3.016788958175943</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01049399554282895</v>
+        <v>0.951774695951882</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.016788958175943</v>
+        <v>1.773373455695238</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.951774695951882</v>
+        <v>13</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.773373455695238</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1862996554378344</v>
       </c>
     </row>
@@ -3209,72 +3191,66 @@
         <v>4.992086020824184e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.2737297344191991</v>
+        <v>1.664602412133753e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.019692980772202</v>
+        <v>8.018652017123168e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.664602412133753e-06</v>
+        <v>-0.008175930114684291</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>8.018652017123168e-06</v>
+        <v>0.1561393441174155</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.008175930114684291</v>
+        <v>0.02440896409985818</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1561393441174155</v>
+        <v>1.727562790226732</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02440896409985818</v>
+        <v>1.660736720121386</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.661708927962281</v>
+        <v>3.166097489541063</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.660736720121386</v>
+        <v>2.518139440963018e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.166097489541063</v>
+        <v>20798578.12382209</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.518139440963018e-14</v>
+        <v>5.455877431242395e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>20798578.12382209</v>
+        <v>10.89298904757918</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>5.455877431242395e-06</v>
+        <v>0.0001338487479496309</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>10.89298904757918</v>
+        <v>8.024171458410857</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001338487479496309</v>
+        <v>1.346235911319183</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.024171458410857</v>
+        <v>0.008618163182276331</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.346235911319183</v>
+        <v>3.076372505084326</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.008618163182276331</v>
+        <v>0.9512515540173446</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.076372505084326</v>
+        <v>1.781018171950861</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9512515540173446</v>
+        <v>13</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.781018171950861</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1856748846984952</v>
       </c>
     </row>
@@ -3289,72 +3265,66 @@
         <v>5.002220787257205e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.2656699691568663</v>
+        <v>1.664602412133753e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.036128972053636</v>
+        <v>8.01697557032737e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.664602412133753e-06</v>
+        <v>0.0006693731027332993</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>8.01697557032737e-06</v>
+        <v>0.1343278053655923</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.0006693731027332993</v>
+        <v>0.01802783191591431</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1343278053655923</v>
+        <v>1.713241025330514</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01802783191591431</v>
+        <v>1.626411124173252</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.643760250429921</v>
+        <v>3.290767103509724</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.626411124173252</v>
+        <v>2.33095585001319e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.290767103509724</v>
+        <v>22432476.68138794</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.33095585001319e-14</v>
+        <v>5.049144496512649e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>22432476.68138794</v>
+        <v>11.72974302472016</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>5.049144496512649e-06</v>
+        <v>0.0001343124895640441</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>11.72974302472016</v>
+        <v>7.969524435918524</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001343124895640441</v>
+        <v>1.366194858433849</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.969524435918524</v>
+        <v>0.008530632094045022</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.366194858433849</v>
+        <v>3.076473835051132</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.008530632094045022</v>
+        <v>0.9515454663257866</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.076473835051132</v>
+        <v>1.775884220617864</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9515454663257866</v>
+        <v>16</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.775884220617864</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1874458230443535</v>
       </c>
     </row>
@@ -3369,72 +3339,66 @@
         <v>4.983523003570039e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.2685570794641252</v>
+        <v>1.664602412133753e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.018014995064275</v>
+        <v>8.018861641124544e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.664602412133753e-06</v>
+        <v>0.006495968325283459</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>8.018861641124544e-06</v>
+        <v>0.1234880513836811</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.006495968325283459</v>
+        <v>0.01528329898519694</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1234880513836811</v>
+        <v>1.707174882380506</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01528329898519694</v>
+        <v>1.612898549317709</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.637875095039038</v>
+        <v>3.416685824358337</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.612898549317709</v>
+        <v>2.162311462326413e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.416685824358337</v>
+        <v>24763775.82080283</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.162311462326413e-14</v>
+        <v>4.564356152703791e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>24763775.82080283</v>
+        <v>13.26025812443807</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.564356152703791e-06</v>
+        <v>0.0001383838210541878</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>13.26025812443807</v>
+        <v>8.989313412201737</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001383838210541878</v>
+        <v>1.222299798130855</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.989313412201737</v>
+        <v>0.01118248599389471</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.222299798130855</v>
+        <v>2.948770104928357</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01118248599389471</v>
+        <v>0.9500418991423411</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.948770104928357</v>
+        <v>1.780658598686043</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9500418991423411</v>
+        <v>16</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.780658598686043</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.193420312646704</v>
       </c>
     </row>
@@ -3449,72 +3413,66 @@
         <v>4.931320402583108e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.2649597327669427</v>
+        <v>1.664602412133753e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.9880705079633385</v>
+        <v>8.023241735416043e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.664602412133753e-06</v>
+        <v>0.01097587782782228</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>8.023241735416043e-06</v>
+        <v>0.1182434411481874</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.01097587782782228</v>
+        <v>0.01409776776920818</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1182434411481874</v>
+        <v>1.714606177258186</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01409776776920818</v>
+        <v>1.607148935191187</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.646377055100262</v>
+        <v>3.55630621389172</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.607148935191187</v>
+        <v>1.995859864696734e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.55630621389172</v>
+        <v>28268067.50236957</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.995859864696734e-14</v>
+        <v>4.028531573922258e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>28268067.50236957</v>
+        <v>15.94858966247501</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.028531573922258e-06</v>
+        <v>0.0001571455158385964</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>15.94858966247501</v>
+        <v>9.561401309856816</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001571455158385964</v>
+        <v>1.224378033032852</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.561401309856816</v>
+        <v>0.01436630513172109</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.224378033032852</v>
+        <v>2.829633584235575</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01436630513172109</v>
+        <v>0.9516561546407281</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.829633584235575</v>
+        <v>1.776090835018588</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9516561546407281</v>
+        <v>16</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.776090835018588</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1793612537958432</v>
       </c>
     </row>
@@ -3529,72 +3487,66 @@
         <v>4.845787371516121e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.2437778008241273</v>
+        <v>1.664602412133753e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.9733442570097983</v>
+        <v>8.02955284321627e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.664602412133753e-06</v>
+        <v>0.01469040842949765</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>8.02955284321627e-06</v>
+        <v>0.1167062847501718</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.01469040842949765</v>
+        <v>0.01383439431930547</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1167062847501718</v>
+        <v>1.756890305624733</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01383439431930547</v>
+        <v>1.722740243179414</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.703397392631341</v>
+        <v>3.301613827408293</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.722740243179414</v>
+        <v>2.003048722730182e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.301613827408293</v>
+        <v>27445864.15863867</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.003048722730182e-14</v>
+        <v>4.218850906528005e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>27445864.15863867</v>
+        <v>15.08847446844098</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.218850906528005e-06</v>
+        <v>0.0001850980662436045</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>15.08847446844098</v>
+        <v>9.110864358053799</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001850980662436045</v>
+        <v>1.427381637894166</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.110864358053799</v>
+        <v>0.01536459239788372</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.427381637894166</v>
+        <v>2.757625131229581</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01536459239788372</v>
+        <v>0.9550052342321826</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.757625131229581</v>
+        <v>1.689432604792077</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9550052342321826</v>
+        <v>15</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.689432604792077</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1551441250956477</v>
       </c>
     </row>
@@ -3609,72 +3561,66 @@
         <v>4.731890936839691e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.1986178411362345</v>
+        <v>1.664602412133753e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.9975378597410032</v>
+        <v>8.037263135608981e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.664602412133753e-06</v>
+        <v>0.01716696883944723</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>8.037263135608981e-06</v>
+        <v>0.1181555147946167</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.01716696883944723</v>
+        <v>0.01425514929917462</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1181555147946167</v>
+        <v>1.721974906499117</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01425514929917462</v>
+        <v>1.65019554881972</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.654466193969907</v>
+        <v>3.379089565420482</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.65019554881972</v>
+        <v>1.847741518122401e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.379089565420482</v>
+        <v>30072116.6405907</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.847741518122401e-14</v>
+        <v>3.808858258081983e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>30072116.6405907</v>
+        <v>16.70972150720466</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>3.808858258081983e-06</v>
+        <v>0.0001673430549912982</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>16.70972150720466</v>
+        <v>9.816830335149232</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001673430549912982</v>
+        <v>1.217910638694877</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.816830335149232</v>
+        <v>0.01612687662111621</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.217910638694877</v>
+        <v>2.724339947623064</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01612687662111621</v>
+        <v>0.9556301557159246</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.724339947623064</v>
+        <v>1.747151890877064</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9556301557159246</v>
+        <v>16</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.747151890877064</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1717677533910106</v>
       </c>
     </row>
@@ -3689,72 +3635,66 @@
         <v>4.603576139133695e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.1299299301699407</v>
+        <v>1.661815428748841e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.072620297830518</v>
+        <v>8.045414616480478e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.661815428748841e-06</v>
+        <v>0.01732063584938899</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>8.045414616480478e-06</v>
+        <v>0.1215178717548544</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.01732063584938899</v>
+        <v>0.01506631728431928</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1215178717548544</v>
+        <v>1.736889928867334</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01506631728431928</v>
+        <v>1.848100260731389</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.673589268540276</v>
+        <v>3.281717709860064</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.848100260731389</v>
+        <v>2.061829371603065e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.281717709860064</v>
+        <v>26602191.99114368</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.061829371603065e-14</v>
+        <v>4.314787908473399e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>26602191.99114368</v>
+        <v>14.59108438101823</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.314787908473399e-06</v>
+        <v>0.0001561993493668334</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>14.59108438101823</v>
+        <v>9.654441571881913</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001561993493668334</v>
+        <v>1.211373770198338</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.654441571881913</v>
+        <v>0.01455906676616083</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.211373770198338</v>
+        <v>2.767730390627091</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01455906676616083</v>
+        <v>0.9560829698125149</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.767730390627091</v>
+        <v>1.715463444332279</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9560829698125149</v>
+        <v>16</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.715463444332279</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1818471261532684</v>
       </c>
     </row>
@@ -3769,72 +3709,66 @@
         <v>4.480376624376108e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.04830023010016676</v>
+        <v>1.628360014073266e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.185309129494386</v>
+        <v>8.052884067506573e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.628360014073266e-06</v>
+        <v>0.01528684510963452</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>8.052884067506573e-06</v>
+        <v>0.1251844990084131</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.01528684510963452</v>
+        <v>0.0159036566919101</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1251844990084131</v>
+        <v>1.726143522028124</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.0159036566919101</v>
+        <v>1.849490174636775</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.653268574946978</v>
+        <v>3.230650036471669</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.849490174636775</v>
+        <v>2.127528238674686e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.230650036471669</v>
+        <v>25906681.96003618</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.127528238674686e-14</v>
+        <v>4.422276590683963e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>25906681.96003618</v>
+        <v>14.27903704615436</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>4.422276590683963e-06</v>
+        <v>0.000152327824716179</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>14.27903704615436</v>
+        <v>8.837488744628283</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.000152327824716179</v>
+        <v>1.288190152624198</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.837488744628283</v>
+        <v>0.01189698701745771</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.288190152624198</v>
+        <v>2.889731728254213</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01189698701745771</v>
+        <v>0.9552602437860747</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.889731728254213</v>
+        <v>1.758713512561744</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9552602437860747</v>
+        <v>16</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.758713512561744</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1782582251361386</v>
       </c>
     </row>
@@ -3849,72 +3783,66 @@
         <v>4.377870449811927e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.02992758067637927</v>
+        <v>1.56373132592148e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.303414523313206</v>
+        <v>8.058937073092831e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.56373132592148e-06</v>
+        <v>0.01184506521538179</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>8.058937073092831e-06</v>
+        <v>0.1275040907275678</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.01184506521538179</v>
+        <v>0.01639511587355765</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1275040907275678</v>
+        <v>1.720905469360273</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01639511587355765</v>
+        <v>1.890536253799376</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.641817377944069</v>
+        <v>3.215446029205451</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.890536253799376</v>
+        <v>2.147695537170759e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.215446029205451</v>
+        <v>25525860.93108517</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.147695537170759e-14</v>
+        <v>4.472248852491492e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>25525860.93108517</v>
+        <v>13.9937307111798</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>4.472248852491492e-06</v>
+        <v>0.0001505341269984111</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>13.9937307111798</v>
+        <v>8.919402881832459</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001505341269984111</v>
+        <v>1.29848562717461</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.919402881832459</v>
+        <v>0.01197585503802808</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.29848562717461</v>
+        <v>2.891864387454233</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01197585503802808</v>
+        <v>0.9551382470363582</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.891864387454233</v>
+        <v>1.768757096947801</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9551382470363582</v>
+        <v>17</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.768757096947801</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.182471135101385</v>
       </c>
     </row>
@@ -3929,72 +3857,66 @@
         <v>4.306028280721975e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.0880999806759358</v>
+        <v>1.478105225009533e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.390863447100082</v>
+        <v>8.063190841990079e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.478105225009533e-06</v>
+        <v>0.007762125347030298</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>8.063190841990079e-06</v>
+        <v>0.1276232969929251</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.007762125347030298</v>
+        <v>0.01634504434987411</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1276232969929251</v>
+        <v>1.715766460030423</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01634504434987411</v>
+        <v>1.748021891256761</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.636195929563355</v>
+        <v>3.142179899541104</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.748021891256761</v>
+        <v>2.249018724720076e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.142179899541104</v>
+        <v>23685870.47943134</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.249018724720076e-14</v>
+        <v>4.796231883028097e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>23685870.47943134</v>
+        <v>12.61745520319602</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>4.796231883028097e-06</v>
+        <v>0.0001511530737742468</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>12.61745520319602</v>
+        <v>9.03622632962192</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001511530737742468</v>
+        <v>1.273645061255849</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>9.03622632962192</v>
+        <v>0.01234216032032095</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.273645061255849</v>
+        <v>2.865079375014789</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01234216032032095</v>
+        <v>0.9555493320707737</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.865079375014789</v>
+        <v>1.758994494658092</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9555493320707737</v>
+        <v>6</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.758994494658092</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1805758536893564</v>
       </c>
     </row>
@@ -4009,72 +3931,66 @@
         <v>4.265475658316183e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.120378400892474</v>
+        <v>1.385314153411119e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.435964366188039</v>
+        <v>8.065663571424639e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.385314153411119e-06</v>
+        <v>0.003855693786574949</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>8.065663571424639e-06</v>
+        <v>0.1259636093987815</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.003855693786574949</v>
+        <v>0.01587840886717193</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1259636093987815</v>
+        <v>1.717154458630786</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01587840886717193</v>
+        <v>1.644377975397761</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.639278413468336</v>
+        <v>3.08134930712093</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.644377975397761</v>
+        <v>2.33869343501692e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.08134930712093</v>
+        <v>22583113.86164513</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.33869343501692e-14</v>
+        <v>5.032834924636334e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>22583113.86164513</v>
+        <v>11.92726709886908</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>5.032834924636334e-06</v>
+        <v>0.0001567194577208053</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>11.92726709886908</v>
+        <v>9.477558737616384</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001567194577208053</v>
+        <v>1.228836890310169</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.477558737616384</v>
+        <v>0.01407718731787384</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.228836890310169</v>
+        <v>2.760693035292227</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01407718731787384</v>
+        <v>0.9557667575458706</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.760693035292227</v>
+        <v>1.769605787395143</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9557667575458706</v>
+        <v>6</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.769605787395143</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.177489131826644</v>
       </c>
     </row>
@@ -4089,72 +4005,66 @@
         <v>4.251767113486818e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.1303527944678745</v>
+        <v>1.286997327097138e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.448021587907109</v>
+        <v>8.06654079122015e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.286997327097138e-06</v>
+        <v>0.0003795412226132057</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>8.06654079122015e-06</v>
+        <v>0.1228505910885841</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.0003795412226132057</v>
+        <v>0.01508848132183836</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1228505910885841</v>
+        <v>1.721225984485815</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01508848132183836</v>
+        <v>1.620759411294101</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.645130852821123</v>
+        <v>3.107043604497978</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.620759411294101</v>
+        <v>2.35189671499261e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.107043604497978</v>
+        <v>23528386.98969699</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.35189671499261e-14</v>
+        <v>4.868118282493559e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>23528386.98969699</v>
+        <v>13.01974729650258</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>4.868118282493559e-06</v>
+        <v>0.0001710900539806668</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>13.01974729650258</v>
+        <v>9.296783030936943</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001710900539806668</v>
+        <v>1.275386422312859</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.296783030936943</v>
+        <v>0.01478734325914188</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.275386422312859</v>
+        <v>2.730023047337155</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01478734325914188</v>
+        <v>0.955668790545731</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.730023047337155</v>
+        <v>1.761859565243358</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.955668790545731</v>
+        <v>6</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.761859565243358</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.160530615937438</v>
       </c>
     </row>
@@ -4169,72 +4079,66 @@
         <v>4.25815257052142e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.1269680197655981</v>
+        <v>1.286997327097138e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.445671964479783</v>
+        <v>8.066062013732079e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.286997327097138e-06</v>
+        <v>-0.0024640382494782</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>8.066062013732079e-06</v>
+        <v>0.1190187524986886</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.0024640382494782</v>
+        <v>0.01416767002504778</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1190187524986886</v>
+        <v>1.739013589056303</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01416767002504778</v>
+        <v>1.728314532003993</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.671187700119676</v>
+        <v>3.080512879114201</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.728314532003993</v>
+        <v>2.39258229284218e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.080512879114201</v>
+        <v>23148293.61790118</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.39258229284218e-14</v>
+        <v>4.976032667029613e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>23148293.61790118</v>
+        <v>12.82049663663067</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>4.976032667029613e-06</v>
+        <v>0.0001814856411728813</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>12.82049663663067</v>
+        <v>9.627002274912762</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001814856411728813</v>
+        <v>1.279931551068577</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.627002274912762</v>
+        <v>0.0168199390991936</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.279931551068577</v>
+        <v>2.686749673887991</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.0168199390991936</v>
+        <v>0.9560618779277004</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.686749673887991</v>
+        <v>1.667305659654901</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9560618779277004</v>
+        <v>6</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.667305659654901</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1561946497671206</v>
       </c>
     </row>
@@ -4249,72 +4153,66 @@
         <v>4.277532897626509e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.119611753307865</v>
+        <v>1.286997327097138e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.444426715255905</v>
+        <v>8.06447447141712e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.286997327097138e-06</v>
+        <v>-0.004945580048078576</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>8.06447447141712e-06</v>
+        <v>0.115463275189252</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.004945580048078576</v>
+        <v>0.01335364239258849</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.115463275189252</v>
+        <v>1.727535324701455</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01335364239258849</v>
+        <v>1.667310076078002</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.65122211317907</v>
+        <v>3.127622884052794</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.667310076078002</v>
+        <v>2.32104829857017e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.127622884052794</v>
+        <v>24125729.71400188</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.32104829857017e-14</v>
+        <v>4.775076751032631e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>24125729.71400188</v>
+        <v>13.50968098478022</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>4.775076751032631e-06</v>
+        <v>0.0001685444510952887</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>13.50968098478022</v>
+        <v>10.49344901265288</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001685444510952887</v>
+        <v>1.168080683296828</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>10.49344901265288</v>
+        <v>0.01855884618251647</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.168080683296828</v>
+        <v>2.673005234324699</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01855884618251647</v>
+        <v>0.9541519805916527</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.673005234324699</v>
+        <v>1.752928119041537</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9541519805916527</v>
+        <v>6</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.752928119041537</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1766425338320552</v>
       </c>
     </row>
@@ -4329,72 +4227,66 @@
         <v>4.307038221745063e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.1130348516499908</v>
+        <v>1.286997327097138e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.449888336465013</v>
+        <v>8.061785946729122e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.286997327097138e-06</v>
+        <v>-0.007600324073354504</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>8.061785946729122e-06</v>
+        <v>0.1121126766271553</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.007600324073354504</v>
+        <v>0.01262499164346012</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1121126766271553</v>
+        <v>1.729034963220138</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01262499164346012</v>
+        <v>1.754114041441149</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.653665322856112</v>
+        <v>3.133019733643315</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.754114041441149</v>
+        <v>2.313058843756572e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.133019733643315</v>
+        <v>24366742.20750528</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.313058843756572e-14</v>
+        <v>4.73272871216539e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>24366742.20750528</v>
+        <v>13.73351222773378</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>4.73272871216539e-06</v>
+        <v>0.0001555372740643871</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>13.73351222773378</v>
+        <v>9.149664292831353</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001555372740643871</v>
+        <v>1.267328334694844</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.149664292831353</v>
+        <v>0.01302101391128911</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.267328334694844</v>
+        <v>2.884362559548727</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01302101391128911</v>
+        <v>0.9544089400645607</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.884362559548727</v>
+        <v>1.747046445357943</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9544089400645607</v>
+        <v>6</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.747046445357943</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1751513291809883</v>
       </c>
     </row>
@@ -4771,7 +4663,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.440824234761336</v>
+        <v>1.42261951484784</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.566026674127853</v>
@@ -4860,7 +4752,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.45478673444615</v>
+        <v>1.440468594126538</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.513136838040569</v>
@@ -4949,7 +4841,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.432560148147967</v>
+        <v>1.413164157387496</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.477105200311441</v>
@@ -5038,7 +4930,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.44456226905506</v>
+        <v>1.415468027568179</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.149235624641884</v>
@@ -5127,7 +5019,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.406030417414127</v>
+        <v>1.3770526746102</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.056021406332136</v>
@@ -5216,7 +5108,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.328067684901976</v>
+        <v>1.304984725989171</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.84740698473155</v>
@@ -5305,7 +5197,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.324106693609681</v>
+        <v>1.300157736772496</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.894370696349576</v>
@@ -5394,7 +5286,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.309864263944325</v>
+        <v>1.28049234139861</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.946633864685143</v>
@@ -5483,7 +5375,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.297907980269327</v>
+        <v>1.265594700686205</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.990786903317391</v>
@@ -5572,7 +5464,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.297786096077764</v>
+        <v>1.265716285200115</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.025018948860794</v>
@@ -5661,7 +5553,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.297114467691001</v>
+        <v>1.262715201165373</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.081413856383761</v>
@@ -5750,7 +5642,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.298715522863741</v>
+        <v>1.265139627741053</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.087426987661963</v>
@@ -5839,7 +5731,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.297928141612107</v>
+        <v>1.26509964464656</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.06962839773494</v>
@@ -5928,7 +5820,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.284393673504782</v>
+        <v>1.25337425403991</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.116141255153703</v>
@@ -6017,7 +5909,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.273110357912858</v>
+        <v>1.244221154768328</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.208555417807896</v>
@@ -6106,7 +5998,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.269386213883613</v>
+        <v>1.240146768661393</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.20108100553735</v>
@@ -6195,7 +6087,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.260884042717402</v>
+        <v>1.232033711543377</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.270297425845978</v>
@@ -6284,7 +6176,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.263567748067557</v>
+        <v>1.22997907083321</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.237774501610382</v>
@@ -6373,7 +6265,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.270137085372363</v>
+        <v>1.237788835169009</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.371079256751115</v>
@@ -6462,7 +6354,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.279791023961357</v>
+        <v>1.248599422887826</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.338137017018397</v>
@@ -6551,7 +6443,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.299817415021164</v>
+        <v>1.265627465061396</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.332587836594158</v>
@@ -6640,7 +6532,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.307927385333548</v>
+        <v>1.274585690504182</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.256733471214129</v>
@@ -6729,7 +6621,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.328270133331138</v>
+        <v>1.297574149125063</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.39027378774982</v>
@@ -6818,7 +6710,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.332944115332793</v>
+        <v>1.303367615969402</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.186106516151116</v>
@@ -6907,7 +6799,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.349964047323194</v>
+        <v>1.316012011363875</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.227384412812237</v>
@@ -6996,7 +6888,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.343183461314342</v>
+        <v>1.312810054022227</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.341190828276671</v>
@@ -7085,7 +6977,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.334247286475767</v>
+        <v>1.301950951684151</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.336403396323147</v>
@@ -7174,7 +7066,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.332810524479065</v>
+        <v>1.300083261012925</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.382324974560985</v>
@@ -7263,7 +7155,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.354716317707356</v>
+        <v>1.318213897969046</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.325347855857349</v>
@@ -7352,7 +7244,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.380460534658187</v>
+        <v>1.337912277437606</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.387028910459398</v>
@@ -7441,7 +7333,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.380788263140006</v>
+        <v>1.34305599762174</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.328984168101566</v>
@@ -7530,7 +7422,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.400635770748863</v>
+        <v>1.358308020841569</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.198788728317453</v>
@@ -7619,7 +7511,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.420892983938299</v>
+        <v>1.385843945514905</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.475704962289497</v>
@@ -7708,7 +7600,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.428881204389644</v>
+        <v>1.38734992638808</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.380822900123257</v>
@@ -7797,7 +7689,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.436286747173278</v>
+        <v>1.398546913026524</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.369200067803597</v>
@@ -7886,7 +7778,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.431462180550342</v>
+        <v>1.389243873205148</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.415323985429401</v>
@@ -7975,7 +7867,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.426167204363936</v>
+        <v>1.385990590328871</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.307727183399492</v>
@@ -8064,7 +7956,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.425872352269469</v>
+        <v>1.376528195766631</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.265399314992178</v>
@@ -8153,7 +8045,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.429113356032253</v>
+        <v>1.375833328804096</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.276952966108325</v>
@@ -8242,7 +8134,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.429297259682108</v>
+        <v>1.383602183201801</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.202899540141733</v>
@@ -8331,7 +8223,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.443990947635215</v>
+        <v>1.394195473676402</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.117176955039978</v>
@@ -8420,7 +8312,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.444243368204243</v>
+        <v>1.395797522260019</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.27483697589583</v>
@@ -8509,7 +8401,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.436233436021022</v>
+        <v>1.38746703469702</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.226641133516969</v>
@@ -8598,7 +8490,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.414241836922808</v>
+        <v>1.366942257966846</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.25888110415195</v>
@@ -8687,7 +8579,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.422922070205353</v>
+        <v>1.368024746474905</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.188019694487101</v>
@@ -8776,7 +8668,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.416761042510644</v>
+        <v>1.363422387760269</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.534199935910495</v>
@@ -8865,7 +8757,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.419207897899227</v>
+        <v>1.365294805902858</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.673840966330997</v>
@@ -8954,7 +8846,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.3952164133282</v>
+        <v>1.341443131487231</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.440190387976892</v>
@@ -9043,7 +8935,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.385786995794808</v>
+        <v>1.332612819170194</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.749404701691176</v>
@@ -9132,7 +9024,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.386195779340952</v>
+        <v>1.330350809847088</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.761384621152272</v>
@@ -9221,7 +9113,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.371172434039672</v>
+        <v>1.322144707838912</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.823092495277853</v>
@@ -9310,7 +9202,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.367370558303245</v>
+        <v>1.314895553756067</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.703634760947627</v>
@@ -9399,7 +9291,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.368997538644735</v>
+        <v>1.316556255965226</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.797237889996366</v>
@@ -9488,7 +9380,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.361602191014144</v>
+        <v>1.311712699410653</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.747323722487669</v>
@@ -9577,7 +9469,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.357849592736126</v>
+        <v>1.307384581645338</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.469249534152838</v>
@@ -9666,7 +9558,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.360682483747157</v>
+        <v>1.309145042464311</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.465950003577723</v>
@@ -9755,7 +9647,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.355886778176348</v>
+        <v>1.308644131569074</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.693987401992767</v>
@@ -9844,7 +9736,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.364818395469205</v>
+        <v>1.317389355898885</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.437402864008962</v>
@@ -9933,7 +9825,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.381586069531439</v>
+        <v>1.335481869901687</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.64372397524372</v>
@@ -10022,7 +9914,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.374806097110647</v>
+        <v>1.333536214436591</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.413461230472264</v>
@@ -10111,7 +10003,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.370827763420405</v>
+        <v>1.329089421303234</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.472905209521174</v>
@@ -10397,7 +10289,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.485704719992749</v>
+        <v>1.503063844823092</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.394546213835225</v>
@@ -10486,7 +10378,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.488814973960008</v>
+        <v>1.506104395786406</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.338376458117291</v>
@@ -10575,7 +10467,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.491904899798169</v>
+        <v>1.50685037859366</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.409690754870946</v>
@@ -10664,7 +10556,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.464392253289144</v>
+        <v>1.46692816569565</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.496972102772757</v>
@@ -10753,7 +10645,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.452869962414504</v>
+        <v>1.440730982259528</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.013426964409544</v>
@@ -10842,7 +10734,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.407041242739222</v>
+        <v>1.398253119194783</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.25778807833989</v>
@@ -10931,7 +10823,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.403281710911058</v>
+        <v>1.387980745561903</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.278806555272094</v>
@@ -11020,7 +10912,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.383790713789461</v>
+        <v>1.363274535880456</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.266679737630392</v>
@@ -11109,7 +11001,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.376134502258249</v>
+        <v>1.355313168103914</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.27184421978685</v>
@@ -11198,7 +11090,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.366951300971941</v>
+        <v>1.334813689257576</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.316646272674281</v>
@@ -11287,7 +11179,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.357795572041352</v>
+        <v>1.325483316242442</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.351132219912793</v>
@@ -11376,7 +11268,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.357862230733108</v>
+        <v>1.325223976336907</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.400119101421535</v>
@@ -11465,7 +11357,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.354883593045423</v>
+        <v>1.318493752243043</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.352087275154822</v>
@@ -11554,7 +11446,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.345999980016621</v>
+        <v>1.30971456467091</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.378065908190133</v>
@@ -11643,7 +11535,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.342686789682361</v>
+        <v>1.306580748401846</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.184060409588956</v>
@@ -11732,7 +11624,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.350372102292768</v>
+        <v>1.310588514358931</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.328168168539748</v>
@@ -11821,7 +11713,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.331055382884931</v>
+        <v>1.286804298841897</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.409737868456816</v>
@@ -11910,7 +11802,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.325679057208631</v>
+        <v>1.274124049103809</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.382811606291378</v>
@@ -11999,7 +11891,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.32486886353701</v>
+        <v>1.272231806296267</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.39775784685641</v>
@@ -12088,7 +11980,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.329458630913372</v>
+        <v>1.277375752863213</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.220639181632805</v>
@@ -12177,7 +12069,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.346047196403281</v>
+        <v>1.293987746493888</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.365154459400836</v>
@@ -12266,7 +12158,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.337903066721316</v>
+        <v>1.292037501238082</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.353631194399055</v>
@@ -12355,7 +12247,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.346964402823715</v>
+        <v>1.296487094061313</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.29900520814483</v>
@@ -12444,7 +12336,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.350105027609624</v>
+        <v>1.294868836442433</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.312030566892818</v>
@@ -12533,7 +12425,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.358389774548351</v>
+        <v>1.306092275588289</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.17623970859676</v>
@@ -12622,7 +12514,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.356459927771102</v>
+        <v>1.301901104732072</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.25529756956651</v>
@@ -12711,7 +12603,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.350106673014508</v>
+        <v>1.296854307916875</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.335819969998456</v>
@@ -12800,7 +12692,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.353215247422191</v>
+        <v>1.301334604354147</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.360402834137978</v>
@@ -12889,7 +12781,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.368862198881894</v>
+        <v>1.312576077143667</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.248319008750754</v>
@@ -12978,7 +12870,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.380205244784959</v>
+        <v>1.320619117928331</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.333359898742908</v>
@@ -13067,7 +12959,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.367082095606126</v>
+        <v>1.31013960709105</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.246854183442553</v>
@@ -13156,7 +13048,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.377976083872183</v>
+        <v>1.323471076813276</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.357143207888339</v>
@@ -13245,7 +13137,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.392203251858504</v>
+        <v>1.349669519900583</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.333209099684063</v>
@@ -13334,7 +13226,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.391224282103638</v>
+        <v>1.350767609094587</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.310238833949034</v>
@@ -13423,7 +13315,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.395642386517063</v>
+        <v>1.357505332579528</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.479937328288486</v>
@@ -13512,7 +13404,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.40034209082777</v>
+        <v>1.360595664866662</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.424766754049831</v>
@@ -13601,7 +13493,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.399830215031791</v>
+        <v>1.360731364310044</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.572136844300173</v>
@@ -13690,7 +13582,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.400628117596855</v>
+        <v>1.36757928111586</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.551392803235528</v>
@@ -13779,7 +13671,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.400381299019519</v>
+        <v>1.37421452253323</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.445190961153436</v>
@@ -13868,7 +13760,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.409653136221637</v>
+        <v>1.387356595870856</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.396923935974768</v>
@@ -13957,7 +13849,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.414689875693204</v>
+        <v>1.400004068044577</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.403702882092146</v>
@@ -14046,7 +13938,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.421255561246992</v>
+        <v>1.407564825618693</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.499681520286506</v>
@@ -14135,7 +14027,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.415941092319748</v>
+        <v>1.406162389870682</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.643022669853327</v>
@@ -14224,7 +14116,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.439830604005557</v>
+        <v>1.424753062527903</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.344818124346609</v>
@@ -14313,7 +14205,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.444975802350002</v>
+        <v>1.432975599475017</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.328687370984703</v>
@@ -14402,7 +14294,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.468673691952045</v>
+        <v>1.455284075644259</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.538439214190103</v>
@@ -14491,7 +14383,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.462259711767981</v>
+        <v>1.452385320375099</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.579777080435663</v>
@@ -14580,7 +14472,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.460098631175684</v>
+        <v>1.447946596018902</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.599216692640664</v>
@@ -14669,7 +14561,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.46980468488445</v>
+        <v>1.459103813696207</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.363790138881802</v>
@@ -14758,7 +14650,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.482880435966605</v>
+        <v>1.470764579540447</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.511170076172763</v>
@@ -14847,7 +14739,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.489893873228212</v>
+        <v>1.483590130712951</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.484400879479076</v>
@@ -14936,7 +14828,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.495963900242876</v>
+        <v>1.483122656029495</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.474055265835366</v>
@@ -15025,7 +14917,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.497978901022984</v>
+        <v>1.484368960223431</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.395740537977204</v>
@@ -15114,7 +15006,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.501912043386133</v>
+        <v>1.486153082373082</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.572624400666</v>
@@ -15203,7 +15095,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.509868860887048</v>
+        <v>1.48776361988884</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.157796453874791</v>
@@ -15292,7 +15184,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.523749403322606</v>
+        <v>1.502021724418911</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.611502483921529</v>
@@ -15381,7 +15273,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.530850722615999</v>
+        <v>1.506642040860947</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.525516508327863</v>
@@ -15470,7 +15362,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.540230412388522</v>
+        <v>1.514348400411485</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.854338553036495</v>
@@ -15559,7 +15451,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.549797207084926</v>
+        <v>1.530570575156164</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.90083992876595</v>
@@ -15648,7 +15540,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.565730717374967</v>
+        <v>1.552340973361753</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.637911969030811</v>
@@ -15737,7 +15629,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.554750801587728</v>
+        <v>1.546659975015271</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.487484784379852</v>
@@ -16023,7 +15915,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.552058284791051</v>
+        <v>1.510573220689006</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.138509090846017</v>
@@ -16112,7 +16004,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.557035054003922</v>
+        <v>1.514834573860282</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.845709405039782</v>
@@ -16201,7 +16093,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.549267959877629</v>
+        <v>1.507978973692867</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.073537486351271</v>
@@ -16290,7 +16182,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.531417861326228</v>
+        <v>1.484127606291462</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.994170393843059</v>
@@ -16379,7 +16271,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.513978845816236</v>
+        <v>1.47425499114111</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.575062453707226</v>
@@ -16468,7 +16360,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.500732581891617</v>
+        <v>1.453275578862081</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.728921910112923</v>
@@ -16557,7 +16449,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.499008199615515</v>
+        <v>1.454217152968932</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.664373517702386</v>
@@ -16646,7 +16538,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.489895178919548</v>
+        <v>1.444501859833258</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.683427885010792</v>
@@ -16735,7 +16627,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.476331644573891</v>
+        <v>1.429551846058177</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.758704492271366</v>
@@ -16824,7 +16716,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.459073642086727</v>
+        <v>1.419511738217965</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.581616742625079</v>
@@ -16913,7 +16805,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.453465984788509</v>
+        <v>1.417151590090606</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.575386225109177</v>
@@ -17002,7 +16894,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.420497393196023</v>
+        <v>1.388402584139559</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.545873740295928</v>
@@ -17091,7 +16983,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.422983652313899</v>
+        <v>1.390541677511625</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.577975357826522</v>
@@ -17180,7 +17072,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.417088262518885</v>
+        <v>1.382996971293903</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.581671434948167</v>
@@ -17269,7 +17161,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.399639568832367</v>
+        <v>1.36234409859713</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.587333758644577</v>
@@ -17358,7 +17250,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.395139145642889</v>
+        <v>1.358501009576455</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.579231179986944</v>
@@ -17447,7 +17339,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.39189971431628</v>
+        <v>1.355640861396392</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.591615161994635</v>
@@ -17536,7 +17428,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.388025647909568</v>
+        <v>1.349193543390738</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.701096822972599</v>
@@ -17625,7 +17517,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.360728776056704</v>
+        <v>1.331100836454101</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.217693755812541</v>
@@ -17714,7 +17606,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.360955200424383</v>
+        <v>1.327975791071393</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.13001761288659</v>
@@ -17803,7 +17695,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.361813556378151</v>
+        <v>1.330050788718909</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.29075702631324</v>
@@ -17892,7 +17784,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.358550698012712</v>
+        <v>1.325005206301203</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.343403793318217</v>
@@ -17981,7 +17873,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.355950901799236</v>
+        <v>1.320796169984868</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.255800387693304</v>
@@ -18070,7 +17962,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.357036012588152</v>
+        <v>1.324240442457928</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.258686306089229</v>
@@ -18159,7 +18051,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.36961892849305</v>
+        <v>1.33506928425368</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.139314324768212</v>
@@ -18248,7 +18140,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.366634337603223</v>
+        <v>1.330569719648372</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.28785121476482</v>
@@ -18337,7 +18229,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.37627282615687</v>
+        <v>1.343538214689879</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.277136210997456</v>
@@ -18426,7 +18318,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.371883440334025</v>
+        <v>1.337047825246936</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.254567857767132</v>
@@ -18515,7 +18407,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.375630650589728</v>
+        <v>1.33978290205047</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.328632308786487</v>
@@ -18604,7 +18496,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.395929472185981</v>
+        <v>1.360076653894976</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.182451155269592</v>
@@ -18693,7 +18585,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.397035455563378</v>
+        <v>1.362412937477876</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.115376169433184</v>
@@ -18782,7 +18674,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.401885531207526</v>
+        <v>1.362696310573769</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.278349983386176</v>
@@ -18871,7 +18763,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.41958556902153</v>
+        <v>1.378931023083238</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.08321981642476</v>
@@ -18960,7 +18852,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.467905714820206</v>
+        <v>1.417011312624424</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.428941526485688</v>
@@ -19049,7 +18941,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.476256602876195</v>
+        <v>1.427675751441493</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.612096681010932</v>
@@ -19138,7 +19030,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.487389842198843</v>
+        <v>1.435846623633496</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.642102209876884</v>
@@ -19227,7 +19119,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.492311963411484</v>
+        <v>1.440754979369678</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.552455115408558</v>
@@ -19316,7 +19208,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.507570954775716</v>
+        <v>1.454865084930099</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.585871158844425</v>
@@ -19405,7 +19297,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.521661679647962</v>
+        <v>1.465715170301015</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.422391112688095</v>
@@ -19494,7 +19386,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.519881320565095</v>
+        <v>1.464374801339369</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.464410688871206</v>
@@ -19583,7 +19475,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.555754862386016</v>
+        <v>1.495028009237089</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.77543423986324</v>
@@ -19672,7 +19564,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.55462865971614</v>
+        <v>1.486390823775224</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.361670159267181</v>
@@ -19761,7 +19653,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.563620588037925</v>
+        <v>1.498228226631343</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.633945714255627</v>
@@ -19850,7 +19742,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.558463244981146</v>
+        <v>1.494244837484158</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.65517805880085</v>
@@ -19939,7 +19831,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.562329036730218</v>
+        <v>1.499090611278671</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.871781827394178</v>
@@ -20028,7 +19920,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.565472514802307</v>
+        <v>1.505726736506618</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.789310314916694</v>
@@ -20117,7 +20009,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.564864368221778</v>
+        <v>1.513846395802795</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.709576374491596</v>
@@ -20206,7 +20098,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.568663418226799</v>
+        <v>1.51427084052098</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.710509189725095</v>
@@ -20295,7 +20187,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.57206200454677</v>
+        <v>1.517462522325789</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.751002014008974</v>
@@ -20384,7 +20276,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.586691613250504</v>
+        <v>1.528004949911937</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.107369631811883</v>
@@ -20473,7 +20365,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.581282409783757</v>
+        <v>1.527869256064819</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.89802417899109</v>
@@ -20562,7 +20454,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.578052765298032</v>
+        <v>1.519619777486938</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.990663203218576</v>
@@ -20651,7 +20543,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.563669099603651</v>
+        <v>1.508194076315153</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.949131128866158</v>
@@ -20740,7 +20632,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.568198725188896</v>
+        <v>1.512908380722816</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.096115422804468</v>
@@ -20829,7 +20721,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.572027899274253</v>
+        <v>1.518232527767202</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.074202447270805</v>
@@ -20918,7 +20810,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.574384690791954</v>
+        <v>1.517041379848275</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.852492240298477</v>
@@ -21007,7 +20899,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.580579002806637</v>
+        <v>1.530022065390096</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.107460968013169</v>
@@ -21096,7 +20988,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.578334928699177</v>
+        <v>1.525663009530258</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.086547022237299</v>
@@ -21185,7 +21077,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.605194739364147</v>
+        <v>1.54774229394083</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.991558796380977</v>
@@ -21274,7 +21166,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.615607741315454</v>
+        <v>1.561463776924125</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.121151253248089</v>
@@ -21363,7 +21255,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.60035769158779</v>
+        <v>1.553196778677875</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.783469611529712</v>
@@ -21649,7 +21541,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.52214265119835</v>
+        <v>1.525715982617884</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.738066472828864</v>
@@ -21738,7 +21630,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.514526371690678</v>
+        <v>1.519084056918624</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.716535727480149</v>
@@ -21827,7 +21719,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.51124410994383</v>
+        <v>1.518885982038116</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.808443351267035</v>
@@ -21916,7 +21808,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.498280048288656</v>
+        <v>1.49268803062694</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.682047353240278</v>
@@ -22005,7 +21897,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.405692842533794</v>
+        <v>1.414938269430762</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.980120833841167</v>
@@ -22094,7 +21986,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.389815416070439</v>
+        <v>1.390634858557227</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.028190492033369</v>
@@ -22183,7 +22075,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.376188194148368</v>
+        <v>1.369719924064902</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.114549180576773</v>
@@ -22272,7 +22164,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.377257325367137</v>
+        <v>1.364793014798429</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.130950174527857</v>
@@ -22361,7 +22253,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.378056193992555</v>
+        <v>1.361951074478902</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.155647142585888</v>
@@ -22450,7 +22342,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.3616610373476</v>
+        <v>1.342320350731383</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.206776436290842</v>
@@ -22539,7 +22431,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.35437745488384</v>
+        <v>1.335039045627524</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.210174577762176</v>
@@ -22628,7 +22520,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.347915822943227</v>
+        <v>1.32530394076241</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.249463273942646</v>
@@ -22717,7 +22609,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.355886356439573</v>
+        <v>1.331465668562378</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.289677786700558</v>
@@ -22806,7 +22698,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.351407861903532</v>
+        <v>1.322264346036775</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.109631559150511</v>
@@ -22895,7 +22787,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.350158378068057</v>
+        <v>1.321432244101433</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.093105087942506</v>
@@ -22984,7 +22876,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.357773450201853</v>
+        <v>1.324439048008443</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.149318829612805</v>
@@ -23073,7 +22965,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.360323193707954</v>
+        <v>1.320882499183526</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.184634917868645</v>
@@ -23162,7 +23054,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.353923949476173</v>
+        <v>1.315529229700917</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.176553268214975</v>
@@ -23251,7 +23143,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.360219676170422</v>
+        <v>1.321905571156227</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.243798252461055</v>
@@ -23340,7 +23232,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.392444936991694</v>
+        <v>1.347838811342541</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.312326255015949</v>
@@ -23429,7 +23321,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.4035557318088</v>
+        <v>1.35974553118538</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.286813770992121</v>
@@ -23518,7 +23410,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.408064819219808</v>
+        <v>1.367637245396118</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.220104456577011</v>
@@ -23607,7 +23499,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.415441308156846</v>
+        <v>1.375089807262263</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.217664035147734</v>
@@ -23696,7 +23588,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.420044331208997</v>
+        <v>1.379633677515616</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.228685969314356</v>
@@ -23785,7 +23677,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.451616279209912</v>
+        <v>1.407367068303593</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.230083982465557</v>
@@ -23874,7 +23766,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.442904206244672</v>
+        <v>1.391712082700733</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.231945412541064</v>
@@ -23963,7 +23855,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.432970307716731</v>
+        <v>1.394722436683694</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.145530120562636</v>
@@ -24052,7 +23944,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.438941233511957</v>
+        <v>1.400793080932284</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.11534689250069</v>
@@ -24141,7 +24033,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.45344202669617</v>
+        <v>1.418468667871038</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.268355638780226</v>
@@ -24230,7 +24122,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.483800864016768</v>
+        <v>1.440113605574586</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.330755437680976</v>
@@ -24319,7 +24211,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.486174091470832</v>
+        <v>1.443942870297482</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.418771889106165</v>
@@ -24408,7 +24300,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.488242246163295</v>
+        <v>1.449171611427418</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.28255572955683</v>
@@ -24497,7 +24389,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.503269690372703</v>
+        <v>1.459391722203892</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.352174191527753</v>
@@ -24586,7 +24478,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.502501583083818</v>
+        <v>1.458870393021032</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.242575710177538</v>
@@ -24675,7 +24567,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.507424457607685</v>
+        <v>1.462938790552711</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.335077144239972</v>
@@ -24764,7 +24656,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.506707078144759</v>
+        <v>1.460668771183412</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.387540392714229</v>
@@ -24853,7 +24745,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.504244978157243</v>
+        <v>1.456640158705033</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.279720304966571</v>
@@ -24942,7 +24834,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.513470823525781</v>
+        <v>1.4623067411902</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.337767317607726</v>
@@ -25031,7 +24923,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.519965448213101</v>
+        <v>1.465686544948867</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.315765048789536</v>
@@ -25120,7 +25012,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.508745196353783</v>
+        <v>1.454509711062276</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.322296089759705</v>
@@ -25209,7 +25101,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.558007286046479</v>
+        <v>1.493973594205283</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.23876442663079</v>
@@ -25298,7 +25190,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.56724530303018</v>
+        <v>1.499406978135637</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.100186399788849</v>
@@ -25387,7 +25279,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.56276920401888</v>
+        <v>1.495501440444597</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.151392480591018</v>
@@ -25476,7 +25368,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.580387759983356</v>
+        <v>1.503959197738079</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.070976484899584</v>
@@ -25565,7 +25457,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.562814395709641</v>
+        <v>1.497044215408389</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.647223446070213</v>
@@ -25654,7 +25546,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.56464676704565</v>
+        <v>1.504082304919169</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.957547865220044</v>
@@ -25743,7 +25635,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.573398239009354</v>
+        <v>1.510782168804148</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.935304835686437</v>
@@ -25832,7 +25724,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.583466701234183</v>
+        <v>1.521548023689196</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.027264263612994</v>
@@ -25921,7 +25813,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.604514208851311</v>
+        <v>1.538984626571001</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.981685905012591</v>
@@ -26010,7 +25902,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.602774984203873</v>
+        <v>1.526862470113879</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.426746375645736</v>
@@ -26099,7 +25991,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.609446417640094</v>
+        <v>1.534358225727154</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.219460966957392</v>
@@ -26188,7 +26080,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.618105075122691</v>
+        <v>1.537118114217568</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.433685439296911</v>
@@ -26277,7 +26169,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.608441405225979</v>
+        <v>1.531938142836461</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.099394347437356</v>
@@ -26366,7 +26258,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.610145990028462</v>
+        <v>1.532460188524734</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.156925969816905</v>
@@ -26455,7 +26347,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.615025396288667</v>
+        <v>1.536724234334195</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.262258791775278</v>
@@ -26544,7 +26436,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.612154128013944</v>
+        <v>1.539694748637102</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.229222087962845</v>
@@ -26633,7 +26525,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.608960352903687</v>
+        <v>1.536412829176304</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.263386312580445</v>
@@ -26722,7 +26614,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.616577763915354</v>
+        <v>1.543376335630668</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.086946661615827</v>
@@ -26811,7 +26703,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.613512561407937</v>
+        <v>1.545756215742781</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.977924392216304</v>
@@ -26900,7 +26792,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.624627201965855</v>
+        <v>1.55253649302392</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.348386210761455</v>
@@ -26989,7 +26881,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.613700020576029</v>
+        <v>1.538858828765276</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.215236436824554</v>
@@ -27275,7 +27167,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.251153963546701</v>
+        <v>1.228104699417731</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.470568309530955</v>
@@ -27364,7 +27256,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.251580373487442</v>
+        <v>1.230074917540903</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.380563074901738</v>
@@ -27453,7 +27345,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.262299126872234</v>
+        <v>1.240500047032978</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.417232780482534</v>
@@ -27542,7 +27434,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.254606553052078</v>
+        <v>1.228860957097728</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.446706989561618</v>
@@ -27631,7 +27523,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.256433136961371</v>
+        <v>1.226746517902666</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.408620188194381</v>
@@ -27720,7 +27612,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.264421808130515</v>
+        <v>1.230005405297225</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.527704849318347</v>
@@ -27809,7 +27701,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.271171945902684</v>
+        <v>1.235256124747665</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.437314619733282</v>
@@ -27898,7 +27790,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.276778653660219</v>
+        <v>1.23609678746244</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.51942167145501</v>
@@ -27987,7 +27879,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.278634427755889</v>
+        <v>1.239209761423393</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.509989206096368</v>
@@ -28076,7 +27968,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.288657047792644</v>
+        <v>1.248704504204376</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.294747916463954</v>
@@ -28165,7 +28057,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.277496010016194</v>
+        <v>1.239329176884133</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.483416790061744</v>
@@ -28254,7 +28146,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.279662923719614</v>
+        <v>1.240285870729755</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.264686103150416</v>
@@ -28343,7 +28235,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.282209433108866</v>
+        <v>1.238277438025821</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.293875226636429</v>
@@ -28432,7 +28324,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.295943626283428</v>
+        <v>1.238778168246431</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.199654251229045</v>
@@ -28521,7 +28413,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.291457205578532</v>
+        <v>1.239351434707458</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.242793864302662</v>
@@ -28610,7 +28502,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.302793163838005</v>
+        <v>1.249157548826025</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.294146692306474</v>
@@ -28699,7 +28591,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.294877487340949</v>
+        <v>1.240914618726278</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.365944437649982</v>
@@ -28788,7 +28680,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.288188477991365</v>
+        <v>1.234174060259782</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.365874394561896</v>
@@ -28877,7 +28769,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.293793798051805</v>
+        <v>1.240988374588335</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.325142168386516</v>
@@ -28966,7 +28858,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.280559228928026</v>
+        <v>1.230953589006416</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.267966771535153</v>
@@ -29055,7 +28947,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.268066575576208</v>
+        <v>1.221146033462598</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.230525907936392</v>
@@ -29144,7 +29036,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.26776267655491</v>
+        <v>1.223289519922395</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.262051901569326</v>
@@ -29233,7 +29125,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.271474613985465</v>
+        <v>1.226448904412787</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.146883682842935</v>
@@ -29322,7 +29214,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.265436234826627</v>
+        <v>1.21878387524946</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.340773277435469</v>
@@ -29411,7 +29303,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.265886142852258</v>
+        <v>1.221603455005989</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.20509841554801</v>
@@ -29500,7 +29392,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.28354387250666</v>
+        <v>1.233575761344761</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.317883246854195</v>
@@ -29589,7 +29481,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.284574110368084</v>
+        <v>1.233419768663872</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.336167705722899</v>
@@ -29678,7 +29570,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.281652187612787</v>
+        <v>1.234065044482895</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.307410631508768</v>
@@ -29767,7 +29659,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.269251181721022</v>
+        <v>1.228189336783247</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.162896980155475</v>
@@ -29856,7 +29748,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.273554333398951</v>
+        <v>1.229755821280722</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.275686854698123</v>
@@ -29945,7 +29837,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.278264081307914</v>
+        <v>1.238674567073151</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.359680762501755</v>
@@ -30034,7 +29926,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.275087453659952</v>
+        <v>1.231265397544942</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.296234859441061</v>
@@ -30123,7 +30015,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.284192256808296</v>
+        <v>1.234398298839948</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.183365734647754</v>
@@ -30212,7 +30104,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.293288932272536</v>
+        <v>1.239666959379562</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.961705198169652</v>
@@ -30301,7 +30193,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.29195926465559</v>
+        <v>1.234117334331304</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.250902227733707</v>
@@ -30390,7 +30282,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.28907761016985</v>
+        <v>1.230510176417939</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.45880565079857</v>
@@ -30479,7 +30371,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.280365843196194</v>
+        <v>1.222794750517461</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.455697362942252</v>
@@ -30568,7 +30460,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.279562910414972</v>
+        <v>1.220893328009296</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.519223549532515</v>
@@ -30657,7 +30549,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.279221644216932</v>
+        <v>1.218893567521313</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.342124479043233</v>
@@ -30746,7 +30638,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.285233621027895</v>
+        <v>1.220667070185222</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.43299151057313</v>
@@ -30835,7 +30727,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.287285874831439</v>
+        <v>1.220042334286212</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.173133721530633</v>
@@ -30924,7 +30816,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.277383865898588</v>
+        <v>1.211008991863276</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.442315390396964</v>
@@ -31013,7 +30905,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.268476199135587</v>
+        <v>1.207927915239244</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.424789901636197</v>
@@ -31102,7 +30994,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.277688242528144</v>
+        <v>1.211444546704557</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.428706399201649</v>
@@ -31191,7 +31083,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.278891934979414</v>
+        <v>1.21185270097607</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.410542394087801</v>
@@ -31280,7 +31172,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.267571469096383</v>
+        <v>1.197938512874596</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.441202492696541</v>
@@ -31369,7 +31261,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.257736465617239</v>
+        <v>1.19314997811973</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.46185891954972</v>
@@ -31458,7 +31350,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.250236225342342</v>
+        <v>1.19228115786675</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.392788515315861</v>
@@ -31547,7 +31439,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.250163248329449</v>
+        <v>1.194630311465945</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.399433287989257</v>
@@ -31636,7 +31528,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.250660884515166</v>
+        <v>1.196831065598428</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.402108369769114</v>
@@ -31725,7 +31617,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.268911504110308</v>
+        <v>1.213607946000612</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.302095237768433</v>
@@ -31814,7 +31706,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.265575676132269</v>
+        <v>1.209172375343207</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.355151761098484</v>
@@ -31903,7 +31795,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.266126404809187</v>
+        <v>1.208405801042737</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.457805968617157</v>
@@ -31992,7 +31884,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.267436755999829</v>
+        <v>1.20785551757851</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.389872205794011</v>
@@ -32081,7 +31973,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.262416364780325</v>
+        <v>1.206080152222424</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.409677955792823</v>
@@ -32170,7 +32062,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.270829037839282</v>
+        <v>1.213609638572057</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.406449959606506</v>
@@ -32259,7 +32151,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.271412529693988</v>
+        <v>1.21393262332446</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.202713035939272</v>
@@ -32348,7 +32240,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.279698271148515</v>
+        <v>1.21660472500008</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.412651582403189</v>
@@ -32437,7 +32329,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.285567155097854</v>
+        <v>1.230744654974468</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.405237779147992</v>
@@ -32526,7 +32418,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.28116719786982</v>
+        <v>1.228260793894453</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.233746296715117</v>
@@ -32615,7 +32507,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.291211942637627</v>
+        <v>1.236187205542111</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.280582047309987</v>
@@ -32901,7 +32793,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.425930239894079</v>
+        <v>1.430156804614168</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.244350988983068</v>
@@ -32990,7 +32882,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.448574293913627</v>
+        <v>1.454134098539247</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.141099405721686</v>
@@ -33079,7 +32971,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.445723689303969</v>
+        <v>1.447356503062545</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.328755459274862</v>
@@ -33168,7 +33060,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.443878205991897</v>
+        <v>1.415454289876899</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.036840854046878</v>
@@ -33257,7 +33149,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.40580701104817</v>
+        <v>1.400904878224353</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.061822198838303</v>
@@ -33346,7 +33238,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.384366352986526</v>
+        <v>1.376188321765873</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.041270411594469</v>
@@ -33435,7 +33327,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.368575586782614</v>
+        <v>1.354368837546021</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.142737466563688</v>
@@ -33524,7 +33416,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.360119840034024</v>
+        <v>1.338888926704902</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.128184103194825</v>
@@ -33613,7 +33505,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.351284402670486</v>
+        <v>1.333008378173503</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.198618899500741</v>
@@ -33702,7 +33594,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.357144464467183</v>
+        <v>1.319162846922387</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.199263416021519</v>
@@ -33791,7 +33683,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.35091008797998</v>
+        <v>1.304085035863201</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.292444057100259</v>
@@ -33880,7 +33772,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.345312519601745</v>
+        <v>1.304087607119501</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.193225743682165</v>
@@ -33969,7 +33861,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.330309142498589</v>
+        <v>1.29000301744101</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.255991637276573</v>
@@ -34058,7 +33950,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.321757790557725</v>
+        <v>1.280458853290686</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.2397264335055</v>
@@ -34147,7 +34039,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.313633198879439</v>
+        <v>1.271500079521184</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.241331483149105</v>
@@ -34236,7 +34128,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.312631985217718</v>
+        <v>1.261406374928728</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.343657195217047</v>
@@ -34325,7 +34217,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.298046754702907</v>
+        <v>1.251347814414858</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.372766887036088</v>
@@ -34414,7 +34306,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.293732762196885</v>
+        <v>1.245984501599094</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.404163330100793</v>
@@ -34503,7 +34395,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.308245866378563</v>
+        <v>1.26031738382932</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.125490818301186</v>
@@ -34592,7 +34484,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.301715036277509</v>
+        <v>1.256582373363289</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.300277251078304</v>
@@ -34681,7 +34573,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.300913692622704</v>
+        <v>1.255575378318249</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.290711338305436</v>
@@ -34770,7 +34662,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.300702059386476</v>
+        <v>1.257295708043507</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.404601508179291</v>
@@ -34859,7 +34751,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.303273764940212</v>
+        <v>1.257941807420345</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.335900396905659</v>
@@ -34948,7 +34840,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.303540869856383</v>
+        <v>1.256078395755995</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.34300853233549</v>
@@ -35037,7 +34929,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.303332925809203</v>
+        <v>1.269588644312446</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.138914510680558</v>
@@ -35126,7 +35018,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.303494067497154</v>
+        <v>1.268056134823633</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.32209012291131</v>
@@ -35215,7 +35107,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.301657806377125</v>
+        <v>1.26986714664109</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.210494736838169</v>
@@ -35304,7 +35196,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.308285637085925</v>
+        <v>1.275140346614707</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.23106435224465</v>
@@ -35393,7 +35285,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.31562082550942</v>
+        <v>1.281982093646517</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.259125770287413</v>
@@ -35482,7 +35374,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.33134900032122</v>
+        <v>1.296484198366098</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.160617803163689</v>
@@ -35571,7 +35463,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.340815136999296</v>
+        <v>1.309583099895069</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.006253020567216</v>
@@ -35660,7 +35552,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.35343671366517</v>
+        <v>1.324773360363725</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.166663691510904</v>
@@ -35749,7 +35641,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.359398314110809</v>
+        <v>1.330910873606041</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.322307961970737</v>
@@ -35838,7 +35730,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.376452912424653</v>
+        <v>1.34396073814759</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.316645096732282</v>
@@ -35927,7 +35819,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.382852163407025</v>
+        <v>1.350964937858662</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.269210561205308</v>
@@ -36016,7 +35908,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.391362168575777</v>
+        <v>1.355267651070425</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.270815667768242</v>
@@ -36105,7 +35997,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.387464923976939</v>
+        <v>1.354307864237142</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.299078198620335</v>
@@ -36194,7 +36086,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.393900415308948</v>
+        <v>1.362562162545148</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.255957471763309</v>
@@ -36283,7 +36175,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.403175338887828</v>
+        <v>1.366027235042818</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.059542184992883</v>
@@ -36372,7 +36264,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.393603343230762</v>
+        <v>1.362592360117943</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.084359455847143</v>
@@ -36461,7 +36353,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.401802608949388</v>
+        <v>1.372751578410088</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.03505555938418</v>
@@ -36550,7 +36442,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.396247293664663</v>
+        <v>1.366305425604022</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.170161666490007</v>
@@ -36639,7 +36531,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.388416431275869</v>
+        <v>1.357989324224003</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.236887230555892</v>
@@ -36728,7 +36620,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.388301408923299</v>
+        <v>1.356343789586934</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.259709661205977</v>
@@ -36817,7 +36709,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.381535511170013</v>
+        <v>1.355312568509628</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.228235688473764</v>
@@ -36906,7 +36798,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.385015402359157</v>
+        <v>1.358050915185152</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.149661484327489</v>
@@ -36995,7 +36887,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.382100127226296</v>
+        <v>1.361439601120787</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.154143197625924</v>
@@ -37084,7 +36976,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.385756491500152</v>
+        <v>1.360632919652833</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.161212973532774</v>
@@ -37173,7 +37065,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.379573147657514</v>
+        <v>1.354357892153035</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.192990280342795</v>
@@ -37262,7 +37154,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.394330474120818</v>
+        <v>1.370475873044738</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.173007415094942</v>
@@ -37351,7 +37243,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.397175383758765</v>
+        <v>1.375683675423016</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.078247670800481</v>
@@ -37440,7 +37332,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.407292905217495</v>
+        <v>1.384782999172522</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.13646312775901</v>
@@ -37529,7 +37421,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.426710340822432</v>
+        <v>1.402687480365201</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.004238918643853</v>
@@ -37618,7 +37510,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.430550103045952</v>
+        <v>1.405169576997891</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.989419134727468</v>
@@ -37707,7 +37599,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.438560509106351</v>
+        <v>1.406042422376902</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.029074966180159</v>
@@ -37796,7 +37688,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.460290953623683</v>
+        <v>1.427644556497167</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.98713011801021</v>
@@ -37885,7 +37777,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.434449732980049</v>
+        <v>1.410481036007891</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.079193155864056</v>
@@ -37974,7 +37866,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.445237273110142</v>
+        <v>1.422400994905224</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.096405615149904</v>
@@ -38063,7 +37955,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.464542240693423</v>
+        <v>1.445737148007302</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.429874950793131</v>
@@ -38152,7 +38044,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.465132301857046</v>
+        <v>1.445746390568346</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.356995836824693</v>
@@ -38241,7 +38133,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.480735833527905</v>
+        <v>1.466420279430374</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.356551550233311</v>
